--- a/CNIntelligibility/mergedIntelligibility_jaccard.xlsx
+++ b/CNIntelligibility/mergedIntelligibility_jaccard.xlsx
@@ -441,152 +441,152 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>01-21377035</t>
+          <t>01-22377201</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>02-22377202</t>
+          <t>02-22377333</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>03-21377053</t>
+          <t>03-21377348</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>04-21377256</t>
+          <t>04-21379216</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>05-21377006</t>
+          <t>05-21377151</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>06-21377242</t>
+          <t>06-21377076</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>07-sy2308207</t>
+          <t>07-21377259</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>08-21377175</t>
+          <t>08-y2342116</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>09-21377163</t>
+          <t>09-21377174</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-sy2308220</t>
+          <t>10-21377335</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>11-22377339</t>
+          <t>11-21377187</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>12-20377292</t>
+          <t>12-22377142</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>13-20377387</t>
+          <t>13-21377181</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>14-20377359</t>
+          <t>14-21377369</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>15-BY2308108</t>
+          <t>15-22377053</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>16-by2308145</t>
+          <t>16-22377084</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>17-zy2308131</t>
+          <t>17-21377185</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>18-BY2308106</t>
+          <t>18-21377184</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>19-BY2308111</t>
+          <t>19-y2314202</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>20-ZY2207207</t>
+          <t>20-21377171</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>21-by2308134</t>
+          <t>21-22377260</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>22-22377318</t>
+          <t>22-21377225</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>23-21377298</t>
+          <t>23-22377206</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>24-BY2308103</t>
+          <t>24-21377003</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>25-SY2308310</t>
+          <t>25-22377028</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>26-22374085</t>
+          <t>26-22377005</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>27-22377099</t>
+          <t>27-21377255</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>28-21377086</t>
+          <t>28-21081004</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>29-21377061</t>
+          <t>29-21377119</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>30-21377172</t>
+          <t>30-y2314105</t>
         </is>
       </c>
     </row>
@@ -597,94 +597,94 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3463203463203463</v>
+        <v>0.4605263157894737</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.4971014492753622</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1669565217391304</v>
+        <v>0.0841013824884792</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1017241379310344</v>
+        <v>0.1183908045977011</v>
       </c>
       <c r="F2" t="n">
-        <v>0.025</v>
+        <v>0.1184615384615384</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1583333333333333</v>
+        <v>0.1047619047619047</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1551383399209486</v>
+        <v>0.1619565217391304</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1909090909090909</v>
+        <v>0.1022544283413848</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1885964912280701</v>
+        <v>0.1183908045977011</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1354166666666666</v>
+        <v>0.0887611749680715</v>
       </c>
       <c r="L2" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1452380952380952</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1590909090909091</v>
+        <v>0.1277173913043478</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1471291866028708</v>
+        <v>0.0729442970822281</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1625</v>
+        <v>0.1076923076923077</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1147186147186147</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1380952380952381</v>
+        <v>0.0227272727272727</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0958333333333333</v>
+        <v>0.0763157894736842</v>
       </c>
       <c r="T2" t="n">
-        <v>0.07729468599033811</v>
+        <v>0.1054545454545454</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1569230769230769</v>
+        <v>0.06613756613756611</v>
       </c>
       <c r="V2" t="n">
-        <v>0.213235294117647</v>
+        <v>0.0866013071895424</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2</v>
+        <v>0.1041666666666666</v>
       </c>
       <c r="X2" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.3813131313131312</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.2803921568627451</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.3671328671328671</v>
+        <v>0.5058823529411764</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.4</v>
+        <v>0.5193452380952381</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.1481818181818182</v>
+        <v>0.0799373040752351</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1509090909090909</v>
+        <v>0.1181818181818181</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.1064425770308123</v>
+        <v>0.0572413793103448</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.2015151515151515</v>
+        <v>0.0192307692307692</v>
       </c>
     </row>
     <row r="3">
@@ -694,94 +694,94 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2063492063492063</v>
+        <v>0.1396103896103896</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1714285714285714</v>
+        <v>0.1414473684210526</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1583333333333333</v>
+        <v>0.1446488294314381</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4305555555555556</v>
+        <v>0.6911764705882353</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3833333333333333</v>
+        <v>0.3558823529411764</v>
       </c>
       <c r="G3" t="n">
-        <v>0.345</v>
+        <v>0.5804953560371517</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5128205128205128</v>
+        <v>0.7642857142857142</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1481818181818182</v>
+        <v>0.1106060606060606</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1314285714285714</v>
+        <v>0.1157407407407407</v>
       </c>
       <c r="K3" t="n">
+        <v>0.0957142857142857</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.1098901098901098</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.1471428571428571</v>
+      </c>
+      <c r="N3" t="n">
         <v>0.1158008658008658</v>
       </c>
-      <c r="L3" t="n">
-        <v>0.2666666666666666</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.1345029239766081</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.148741418764302</v>
-      </c>
       <c r="O3" t="n">
-        <v>0.1640866873065015</v>
+        <v>0.1017241379310344</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1361655773420479</v>
+        <v>0.092032967032967</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1722222222222222</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="R3" t="n">
+        <v>0.0584415584415584</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.09347826086956521</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.0608974358974358</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.0454545454545454</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.0263157894736842</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.0739348370927318</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.0616666666666666</v>
+      </c>
+      <c r="AA3" t="n">
         <v>0.1101190476190476</v>
       </c>
-      <c r="S3" t="n">
-        <v>0.0627272727272727</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.09375</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.2202380952380952</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.1399521531100478</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.1336898395721925</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.1452380952380952</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.1240601503759398</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.1956521739130434</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.1952380952380952</v>
-      </c>
       <c r="AB3" t="n">
-        <v>0.173444976076555</v>
+        <v>0.0819397993311036</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.4962121212121212</v>
+        <v>0.25</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3416666666666667</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.4299242424242424</v>
+        <v>0.5247678018575852</v>
       </c>
     </row>
     <row r="4">
@@ -791,94 +791,94 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1291666666666666</v>
+        <v>0.1213235294117647</v>
       </c>
       <c r="C4" t="n">
-        <v>0.119047619047619</v>
+        <v>0.1380952380952381</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1825396825396825</v>
+        <v>0.1052173913043478</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0555555555555555</v>
+        <v>0.0896686159844054</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.1264880952380952</v>
       </c>
       <c r="G4" t="n">
-        <v>0.175</v>
+        <v>0.0826330532212885</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.1345029239766081</v>
       </c>
       <c r="I4" t="n">
-        <v>0.125</v>
+        <v>0.1034782608695652</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1990131578947368</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2</v>
+        <v>0.1396103896103896</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1726973684210526</v>
+        <v>0.1702898550724637</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2481203007518796</v>
+        <v>0.46875</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2996323529411764</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3011363636363636</v>
+        <v>0.2704678362573099</v>
       </c>
       <c r="P4" t="n">
-        <v>0.4142857142857142</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0505050505050505</v>
+        <v>0.1151315789473684</v>
       </c>
       <c r="R4" t="n">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
       <c r="S4" t="n">
+        <v>0.0217391304347826</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.0277777777777777</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.1004901960784313</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.0553160919540229</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.0476190476190476</v>
+      </c>
+      <c r="Y4" t="n">
         <v>0.0540935672514619</v>
       </c>
-      <c r="T4" t="n">
-        <v>0.1051282051282051</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.1441647597254004</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.1151315789473684</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.1470588235294117</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.0888888888888888</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.1736111111111111</v>
-      </c>
       <c r="Z4" t="n">
-        <v>0.1964285714285714</v>
+        <v>0.065</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.08040935672514619</v>
+        <v>0.0454545454545454</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.16875</v>
+        <v>0.06944444444444441</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.1441647597254004</v>
+        <v>0.025</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.1254901960784313</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.2218045112781954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -888,94 +888,94 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1402173913043478</v>
+        <v>0.1395881006864988</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1026315789473684</v>
+        <v>0.1270053475935829</v>
       </c>
       <c r="D5" t="n">
-        <v>0.11</v>
+        <v>0.0827272727272727</v>
       </c>
       <c r="E5" t="n">
-        <v>0.165158371040724</v>
+        <v>0.1106719367588932</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1623376623376623</v>
+        <v>0.1152173913043478</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1372282608695652</v>
+        <v>0.1035714285714285</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1375</v>
+        <v>0.1203208556149732</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1463815789473684</v>
+        <v>0.08040935672514619</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1875</v>
+        <v>0.1414473684210526</v>
       </c>
       <c r="M5" t="n">
-        <v>0.175</v>
+        <v>0.094017094017094</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1377708978328173</v>
+        <v>0.050125313283208</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1345029239766081</v>
+        <v>0.1431818181818182</v>
       </c>
       <c r="P5" t="n">
-        <v>0.096078431372549</v>
+        <v>0.0941558441558441</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1873065015479876</v>
+        <v>0.0555555555555555</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0486111111111111</v>
+        <v>0.0533333333333333</v>
       </c>
       <c r="S5" t="n">
-        <v>0.08125</v>
+        <v>0.0555555555555555</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.0645833333333333</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1547619047619047</v>
+        <v>0.0834782608695652</v>
       </c>
       <c r="V5" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="W5" t="n">
-        <v>0.3428571428571428</v>
+        <v>0.1676470588235294</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2590909090909091</v>
+        <v>0.5607843137254902</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.4083333333333333</v>
+        <v>0.3980392156862745</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.08630952380952379</v>
+        <v>0.0816666666666666</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1904761904761904</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.08204334365325069</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.2788461538461538</v>
+        <v>0.0277777777777777</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.1726973684210526</v>
+        <v>0.0729166666666666</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.1961722488038277</v>
+        <v>0.0663157894736842</v>
       </c>
     </row>
     <row r="6">
@@ -985,94 +985,94 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.4791666666666666</v>
       </c>
       <c r="C6" t="n">
-        <v>0.46875</v>
+        <v>0.4694444444444444</v>
       </c>
       <c r="D6" t="n">
-        <v>0.493006993006993</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="E6" t="n">
-        <v>0.625</v>
+        <v>0.4551630434782608</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1425</v>
+        <v>0.1060794044665012</v>
       </c>
       <c r="G6" t="n">
-        <v>0.140527950310559</v>
+        <v>0.1659090909090909</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.0901856763925729</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1789473684210526</v>
+        <v>0.1047619047619047</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1583333333333333</v>
+        <v>0.1009316770186335</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3208333333333333</v>
+        <v>0.1025</v>
       </c>
       <c r="L6" t="n">
-        <v>0.188034188034188</v>
+        <v>0.1</v>
       </c>
       <c r="M6" t="n">
-        <v>0.135</v>
+        <v>0.0844827586206896</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2105263157894736</v>
+        <v>0.1160714285714285</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1766917293233082</v>
+        <v>0.0933908045977011</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1208133971291866</v>
+        <v>0.1258741258741259</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.125</v>
+        <v>0.0595238095238095</v>
       </c>
       <c r="R6" t="n">
-        <v>0.09761904761904761</v>
+        <v>0.0178571428571428</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0869565217391304</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1458333333333333</v>
+        <v>0.025</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1685185185185185</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1234782608695652</v>
+        <v>0.1204013377926421</v>
       </c>
       <c r="W6" t="n">
-        <v>0.188235294117647</v>
+        <v>0.061335403726708</v>
       </c>
       <c r="X6" t="n">
-        <v>0.196594427244582</v>
+        <v>0.0550595238095238</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.198051948051948</v>
+        <v>0.09846153846153841</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.2733918128654971</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.3741830065359477</v>
+        <v>0.1016746411483253</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.4347826086956522</v>
+        <v>0.424812030075188</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.6424242424242425</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.1464646464646464</v>
+        <v>0.0417391304347826</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.1135714285714285</v>
+        <v>0.0876190476190476</v>
       </c>
     </row>
     <row r="7">
@@ -1082,94 +1082,94 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.15</v>
+        <v>0.0955555555555555</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.1098901098901098</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0555555555555555</v>
+        <v>0.0933333333333333</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1237373737373737</v>
+        <v>0.1324786324786324</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.1577380952380952</v>
       </c>
       <c r="G7" t="n">
-        <v>0.14</v>
+        <v>0.1016666666666666</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0982142857142857</v>
+        <v>0.1258741258741259</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1842105263157894</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.1036789297658862</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1791443850267379</v>
+        <v>0.1252173913043478</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3808823529411764</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3208333333333333</v>
+        <v>0.6147058823529412</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3</v>
+        <v>0.5147058823529411</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4188034188034188</v>
+        <v>0.6378787878787879</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0887611749680715</v>
+        <v>0.0856321839080459</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1693121693121693</v>
+        <v>0.1059782608695652</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0526315789473684</v>
+        <v>0.06270903010033441</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1166666666666666</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0866013071895424</v>
+        <v>0.0755555555555555</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2590909090909091</v>
+        <v>0.0227272727272727</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1377708978328173</v>
+        <v>0.0506117908787541</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1555555555555555</v>
+        <v>0.0227272727272727</v>
       </c>
       <c r="X7" t="n">
-        <v>0.2</v>
+        <v>0.0881818181818181</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1458333333333333</v>
+        <v>0.0811688311688311</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.1464646464646464</v>
+        <v>0.0816666666666666</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.1302521008403361</v>
+        <v>0.0545905707196029</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.1623376623376623</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.1336898395721925</v>
+        <v>0.0227272727272727</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.1860902255639097</v>
+        <v>0.0717391304347826</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.2037037037037037</v>
+        <v>0.0753968253968253</v>
       </c>
     </row>
     <row r="8">
@@ -1179,94 +1179,94 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0954545454545454</v>
+        <v>0.09769230769230761</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1352380952380952</v>
+        <v>0.1126315789473684</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1861471861471861</v>
+        <v>0.1106719367588932</v>
       </c>
       <c r="E8" t="n">
-        <v>0.19375</v>
+        <v>0.1041666666666666</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1926470588235294</v>
+        <v>0.125</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4855072463768116</v>
+        <v>0.6131578947368421</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3348214285714286</v>
+        <v>0.5618421052631579</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4318181818181817</v>
+        <v>0.55</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1509090909090909</v>
+        <v>0.1125</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1464646464646464</v>
+        <v>0.1607744107744107</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1044117647058823</v>
+        <v>0.09846153846153841</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2009803921568627</v>
+        <v>0.07573632538569421</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1168831168831168</v>
+        <v>0.1107142857142857</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1369565217391304</v>
+        <v>0.1079545454545454</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1544117647058823</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="R8" t="n">
-        <v>0.08055555555555551</v>
+        <v>0.025</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1622807017543859</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0596491228070175</v>
+        <v>0.0773809523809523</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1306818181818181</v>
+        <v>0.09347826086956521</v>
       </c>
       <c r="V8" t="n">
-        <v>0.125</v>
+        <v>0.0375</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1640866873065015</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.1859649122807017</v>
+        <v>0.0277777777777777</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.2005494505494505</v>
+        <v>0.075</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.1384615384615384</v>
+        <v>0.09704968944099369</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2136363636363636</v>
+        <v>0.0277777777777777</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.2058823529411764</v>
+        <v>0.0643939393939393</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.2166666666666666</v>
+        <v>0.0910973084886128</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.4642857142857143</v>
+        <v>0.2456140350877192</v>
       </c>
     </row>
     <row r="9">
@@ -1276,94 +1276,94 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.0726190476190476</v>
       </c>
       <c r="C9" t="n">
-        <v>0.188235294117647</v>
+        <v>0.09003831417624519</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0884615384615384</v>
+        <v>0.1181818181818181</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1640866873065015</v>
+        <v>0.1325757575757575</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1588235294117647</v>
+        <v>0.1459276018099547</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1464285714285714</v>
+        <v>0.1583333333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.1116600790513833</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1926470588235294</v>
+        <v>0.1350574712643678</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1143790849673202</v>
+        <v>0.1326315789473684</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1789473684210526</v>
+        <v>0.06818181818181809</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1865079365079365</v>
+        <v>0.0849999999999999</v>
       </c>
       <c r="M9" t="n">
-        <v>0.07346491228070171</v>
+        <v>0.0712560386473429</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1359649122807017</v>
+        <v>0.1125</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1715686274509804</v>
+        <v>0.1</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1269841269841269</v>
+        <v>0.1016666666666666</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.3423076923076923</v>
+        <v>0.2569444444444444</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2176470588235294</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2027972027972027</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4602272727272727</v>
+        <v>0.3080357142857143</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1017391304347826</v>
+        <v>0.0828698553948832</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1385281385281385</v>
+        <v>0.100250626566416</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1188235294117647</v>
+        <v>0.0389805097451274</v>
       </c>
       <c r="X9" t="n">
-        <v>0.1435897435897435</v>
+        <v>0.0263157894736842</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1143790849673202</v>
+        <v>0.0684523809523809</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.165903890160183</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.1143790849673202</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.1387163561076604</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.025</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.1339285714285714</v>
+        <v>0.0597643097643097</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.1240601503759398</v>
+        <v>0.09761904761904761</v>
       </c>
     </row>
     <row r="10">
@@ -1373,94 +1373,94 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1377708978328173</v>
+        <v>0.08297413793103441</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1625</v>
+        <v>0.09347826086956521</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1846590909090909</v>
+        <v>0.1534090909090909</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1377708978328173</v>
+        <v>0.0754985754985755</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1114285714285714</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1180555555555555</v>
+        <v>0.1038961038961038</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0555555555555555</v>
+        <v>0.0892857142857142</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1431818181818182</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1238095238095238</v>
+        <v>0.1309523809523809</v>
       </c>
       <c r="K10" t="n">
-        <v>0.185</v>
+        <v>0.1016666666666666</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1139601139601139</v>
+        <v>0.1555555555555555</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1610305958132045</v>
+        <v>0.1116600790513833</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1476190476190476</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1497326203208556</v>
+        <v>0.1425120772946859</v>
       </c>
       <c r="P10" t="n">
-        <v>0.4797570850202429</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.3119047619047619</v>
+        <v>0.1593567251461988</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3418181818181818</v>
+        <v>0.5397727272727273</v>
       </c>
       <c r="S10" t="n">
-        <v>0.4558823529411764</v>
+        <v>0.6428571428571428</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1071428571428571</v>
+        <v>0.0817204301075268</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1345029239766081</v>
+        <v>0.1181818181818181</v>
       </c>
       <c r="V10" t="n">
-        <v>0.1309523809523809</v>
+        <v>0.0427272727272727</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.06331168831168831</v>
       </c>
       <c r="X10" t="n">
-        <v>0.1414473684210526</v>
+        <v>0.06613756613756611</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.1</v>
+        <v>0.0227272727272727</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.2128851540616246</v>
+        <v>0.0473790322580645</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.1226190476190476</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.1149068322981366</v>
+        <v>0.1052173913043478</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.1825396825396825</v>
+        <v>0.0595238095238095</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.0892857142857142</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.202445652173913</v>
+        <v>0.0395962732919254</v>
       </c>
     </row>
     <row r="11">
@@ -1470,94 +1470,94 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1752380952380952</v>
+        <v>0.1252173913043478</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.1060025542784163</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1464285714285714</v>
+        <v>0.1063321385902031</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1561264822134387</v>
+        <v>0.1237373737373737</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1180555555555555</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2149122807017544</v>
+        <v>0.0850574712643678</v>
       </c>
       <c r="H11" t="n">
-        <v>0.148235294117647</v>
+        <v>0.0880541871921182</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09761904761904761</v>
+        <v>0.1225</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1377708978328173</v>
+        <v>0.099025974025974</v>
       </c>
       <c r="K11" t="n">
-        <v>0.124401913875598</v>
+        <v>0.1034782608695652</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1846590909090909</v>
+        <v>0.0969827586206896</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1305555555555555</v>
+        <v>0.1135714285714285</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0838815789473684</v>
+        <v>0.106060606060606</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1545893719806763</v>
+        <v>0.1286231884057971</v>
       </c>
       <c r="P11" t="n">
-        <v>0.2188888888888889</v>
+        <v>0.1025</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.0889423076923077</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0717703349282296</v>
+        <v>0.06347826086956521</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0732323232323232</v>
+        <v>0.0263157894736842</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1041666666666666</v>
+        <v>0.1036789297658862</v>
       </c>
       <c r="U11" t="n">
-        <v>0.687719298245614</v>
+        <v>0.2733918128654971</v>
       </c>
       <c r="V11" t="n">
-        <v>0.3214285714285714</v>
+        <v>0.106060606060606</v>
       </c>
       <c r="W11" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.7706766917293233</v>
       </c>
       <c r="X11" t="n">
-        <v>0.3875</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0417391304347826</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.1192145862552594</v>
+        <v>0.08545454545454539</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.0571895424836601</v>
+        <v>0.0656284760845383</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.1961722488038277</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.1149068322981366</v>
+        <v>0.1037037037037037</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.1287878787878787</v>
+        <v>0.0477272727272727</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.256578947368421</v>
+        <v>0.0511494252873563</v>
       </c>
     </row>
     <row r="12">
@@ -1567,94 +1567,94 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1825396825396825</v>
+        <v>0.092258064516129</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1076190476190476</v>
+        <v>0.1277173913043478</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1993464052287581</v>
+        <v>0.1343873517786561</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1726190476190476</v>
+        <v>0.09769230769230761</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1225</v>
+        <v>0.1451048951048951</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1742424242424242</v>
+        <v>0.1114285714285714</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1802631578947368</v>
+        <v>0.08545454545454539</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1583333333333333</v>
+        <v>0.1201923076923077</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3925438596491228</v>
+        <v>0.8020833333333333</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3705357142857143</v>
+        <v>0.5697368421052631</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4026086956521739</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3571428571428571</v>
+        <v>0.7048611111111112</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1306818181818181</v>
+        <v>0.0645833333333333</v>
       </c>
       <c r="O12" t="n">
-        <v>0.149074074074074</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="P12" t="n">
-        <v>0.1009615384615384</v>
+        <v>0.1060025542784163</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.1961722488038277</v>
+        <v>0.02</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1031746031746031</v>
+        <v>0.0639730639730639</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1469298245614035</v>
+        <v>0.0622710622710622</v>
       </c>
       <c r="T12" t="n">
-        <v>0.1309523809523809</v>
+        <v>0.0511494252873563</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1486013986013986</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="V12" t="n">
-        <v>0.2649122807017544</v>
+        <v>0.0851449275362318</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1458333333333333</v>
+        <v>0.0805152979066022</v>
       </c>
       <c r="X12" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.0654545454545454</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1166666666666666</v>
+        <v>0.0548941798941798</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.1534090909090909</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.1385281385281385</v>
+        <v>0.06818181818181809</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.2178362573099415</v>
+        <v>0.025</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.1184782608695652</v>
+        <v>0.0753968253968253</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.0753588516746411</v>
+        <v>0.0815018315018315</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.1669565217391304</v>
+        <v>0.0639730639730639</v>
       </c>
     </row>
     <row r="13">
@@ -1664,94 +1664,94 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1464285714285714</v>
+        <v>0.1041666666666666</v>
       </c>
       <c r="C13" t="n">
-        <v>0.165903890160183</v>
+        <v>0.1252173913043478</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6761133603238867</v>
+        <v>0.8474264705882353</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3722222222222222</v>
+        <v>0.6928104575163399</v>
       </c>
       <c r="F13" t="n">
-        <v>0.322463768115942</v>
+        <v>0.6617647058823529</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6128205128205129</v>
+        <v>0.4607843137254902</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1569230769230769</v>
+        <v>0.0969827586206896</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1339285714285714</v>
+        <v>0.136574074074074</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1363636363636363</v>
+        <v>0.1139601139601139</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1952380952380952</v>
+        <v>0.0906593406593406</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1551383399209486</v>
+        <v>0.1366396761133603</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1369565217391304</v>
+        <v>0.1022544283413848</v>
       </c>
       <c r="N13" t="n">
-        <v>0.088235294117647</v>
+        <v>0.0666666666666666</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1652173913043478</v>
+        <v>0.0887611749680715</v>
       </c>
       <c r="P13" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.1521739130434782</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.1276315789473684</v>
+        <v>0.0611888111888111</v>
       </c>
       <c r="R13" t="n">
-        <v>0.075</v>
+        <v>0.0834782608695652</v>
       </c>
       <c r="S13" t="n">
-        <v>0.2105263157894736</v>
+        <v>0.036472148541114</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1476190476190476</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1669565217391304</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="V13" t="n">
-        <v>0.284313725490196</v>
+        <v>0.025</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1791979949874686</v>
+        <v>0.0753968253968253</v>
       </c>
       <c r="X13" t="n">
-        <v>0.1406926406926407</v>
+        <v>0.1076923076923077</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.165266106442577</v>
+        <v>0.06270903010033441</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.1207729468599033</v>
+        <v>0.0540935672514619</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.2188995215311004</v>
+        <v>0.0925925925925925</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.6172161172161172</v>
+        <v>0.284829721362229</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.1748366013071895</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.3826086956521739</v>
+        <v>0.5340557275541795</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.6461538461538461</v>
+        <v>0.4985294117647059</v>
       </c>
     </row>
     <row r="14">
@@ -1761,94 +1761,94 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1547619047619047</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5761904761904761</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4523809523809523</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3882575757575757</v>
+        <v>0.4456521739130434</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.6547619047619048</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1276190476190476</v>
+        <v>0.1004464285714285</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1217532467532467</v>
+        <v>0.1574675324675324</v>
       </c>
       <c r="I14" t="n">
-        <v>0.08125</v>
+        <v>0.1047619047619047</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1953781512605042</v>
+        <v>0.1074074074074074</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1564171122994652</v>
+        <v>0.112037037037037</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2327898550724637</v>
+        <v>0.0997001499250374</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1526315789473684</v>
+        <v>0.092032967032967</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0972850678733031</v>
+        <v>0.0749336870026525</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1507177033492823</v>
+        <v>0.1521739130434782</v>
       </c>
       <c r="P14" t="n">
-        <v>0.1385281385281385</v>
+        <v>0.1291208791208791</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0515873015873015</v>
+        <v>0.1224256292906178</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2198142414860681</v>
+        <v>0.037087912087912</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1396103896103896</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1539473684210526</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1742424242424242</v>
+        <v>0.025</v>
       </c>
       <c r="V14" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1132478632478632</v>
+        <v>0.1076923076923077</v>
       </c>
       <c r="X14" t="n">
-        <v>0.2368421052631578</v>
+        <v>0.0619967793880837</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.09375</v>
+        <v>0.0666666666666666</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.1851851851851851</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.4035087719298245</v>
+        <v>0.2733918128654971</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.3308823529411764</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.3521739130434783</v>
+        <v>0.7063492063492063</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.5476190476190476</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.1</v>
+        <v>0.0857142857142857</v>
       </c>
     </row>
     <row r="15">
@@ -1858,94 +1858,94 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1716791979949874</v>
+        <v>0.1135714285714285</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1833333333333333</v>
+        <v>0.1217391304347826</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1363636363636363</v>
+        <v>0.1031468531468531</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1224256292906178</v>
+        <v>0.1309523809523809</v>
       </c>
       <c r="F15" t="n">
-        <v>0.208235294117647</v>
+        <v>0.0990338164251207</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2111111111111111</v>
+        <v>0.1402173913043478</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1441647597254004</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3736263736263736</v>
+        <v>0.7801857585139318</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4452380952380952</v>
+        <v>0.4607142857142857</v>
       </c>
       <c r="K15" t="n">
-        <v>0.345</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5889423076923077</v>
+        <v>0.7529411764705882</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0889328063241106</v>
+        <v>0.125</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1471571906354515</v>
+        <v>0.1675925925925925</v>
       </c>
       <c r="O15" t="n">
-        <v>0.025</v>
+        <v>0.0889655172413793</v>
       </c>
       <c r="P15" t="n">
-        <v>0.1527777777777777</v>
+        <v>0.1144827586206896</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.175</v>
+        <v>0.0763888888888888</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1168831168831168</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.0583333333333333</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1116600790513833</v>
+        <v>0.0465367965367965</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1431818181818182</v>
+        <v>0.1052173913043478</v>
       </c>
       <c r="V15" t="n">
-        <v>0.1970588235294118</v>
+        <v>0.0597643097643097</v>
       </c>
       <c r="W15" t="n">
-        <v>0.101010101010101</v>
+        <v>0.08249158249158239</v>
       </c>
       <c r="X15" t="n">
-        <v>0.150735294117647</v>
+        <v>0.0497685185185185</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1031746031746031</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.1583333333333333</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.2128851540616246</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.156084656084656</v>
+        <v>0.0763157894736842</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.1431818181818182</v>
+        <v>0.0815018315018315</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.1240601503759398</v>
+        <v>0.0654545454545454</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.1242424242424242</v>
+        <v>0.052139037433155</v>
       </c>
     </row>
     <row r="16">
@@ -1955,94 +1955,94 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1276315789473684</v>
+        <v>0.1195286195286195</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1534526854219949</v>
+        <v>0.1252173913043478</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1785714285714285</v>
+        <v>0.1208333333333333</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1265664160401002</v>
+        <v>0.0805152979066022</v>
       </c>
       <c r="F16" t="n">
-        <v>0.213235294117647</v>
+        <v>0.105295566502463</v>
       </c>
       <c r="G16" t="n">
-        <v>0.113095238095238</v>
+        <v>0.0889328063241106</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1031746031746031</v>
+        <v>0.1149999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1625</v>
+        <v>0.1207729468599033</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1539473684210526</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1302521008403361</v>
+        <v>0.1009615384615384</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2163742690058479</v>
+        <v>0.0899503722084367</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1369565217391304</v>
+        <v>0.1502849002849002</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.1006864988558352</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1087662337662337</v>
+        <v>0.09846153846153841</v>
       </c>
       <c r="P16" t="n">
-        <v>0.1166666666666666</v>
+        <v>0.1455026455026455</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1416083916083916</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1180555555555555</v>
+        <v>0.0892857142857142</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1059782608695652</v>
+        <v>0.0851449275362318</v>
       </c>
       <c r="T16" t="n">
-        <v>0.3095238095238095</v>
+        <v>0.4409722222222222</v>
       </c>
       <c r="U16" t="n">
-        <v>0.3883928571428571</v>
+        <v>0.2951388888888889</v>
       </c>
       <c r="V16" t="n">
-        <v>0.2271739130434782</v>
+        <v>0.4425770308123249</v>
       </c>
       <c r="W16" t="n">
-        <v>0.4642857142857143</v>
+        <v>0.5243055555555556</v>
       </c>
       <c r="X16" t="n">
-        <v>0.1208133971291866</v>
+        <v>0.0925925925925925</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.1026315789473684</v>
+        <v>0.0892857142857142</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.1345029239766081</v>
+        <v>0.06347826086956521</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.1626984126984126</v>
+        <v>0.0646853146853146</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.1551383399209486</v>
+        <v>0.1083333333333333</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.1561264822134387</v>
+        <v>0.025</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.1213235294117647</v>
+        <v>0.0444664031620553</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.1527777777777777</v>
+        <v>0.0217391304347826</v>
       </c>
     </row>
     <row r="17">
@@ -2052,94 +2052,94 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0888888888888888</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1675191815856777</v>
+        <v>0.096078431372549</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1291666666666666</v>
+        <v>0.1188235294117647</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1240601503759398</v>
+        <v>0.1366459627329192</v>
       </c>
       <c r="F17" t="n">
-        <v>0.188235294117647</v>
+        <v>0.0972222222222222</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0789473684210526</v>
+        <v>0.1081871345029239</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1547619047619047</v>
+        <v>0.1377708978328173</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1217391304347826</v>
+        <v>0.1079545454545454</v>
       </c>
       <c r="J17" t="n">
-        <v>0.138235294117647</v>
+        <v>0.0919117647058823</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1287878787878787</v>
+        <v>0.09153318077803201</v>
       </c>
       <c r="L17" t="n">
+        <v>0.1363636363636363</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.1166666666666666</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="P17" t="n">
         <v>0.1990131578947368</v>
       </c>
-      <c r="M17" t="n">
-        <v>0.1833333333333333</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.2371794871794871</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.1428571428571428</v>
-      </c>
       <c r="Q17" t="n">
-        <v>0.2489130434782608</v>
+        <v>0.4555555555555555</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1607142857142857</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0954545454545454</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0726190476190476</v>
+        <v>0.0857142857142857</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09</v>
+        <v>0.0458333333333333</v>
       </c>
       <c r="V17" t="n">
-        <v>0.1890756302521008</v>
+        <v>0.0294117647058823</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1802631578947368</v>
+        <v>0.0780542986425339</v>
       </c>
       <c r="X17" t="n">
-        <v>0.0838815789473684</v>
+        <v>0.0513157894736842</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0527777777777777</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.1463815789473684</v>
+        <v>0.0601449275362318</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.119298245614035</v>
+        <v>0.0662055335968379</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.1578947368421052</v>
+        <v>0.075</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.1583333333333333</v>
+        <v>0.0571895424836601</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.1706730769230769</v>
+        <v>0.0608333333333333</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.2163742690058479</v>
+        <v>0.0515873015873015</v>
       </c>
     </row>
     <row r="18">
@@ -2149,94 +2149,94 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.114074074074074</v>
+        <v>0.1483516483516483</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1561264822134387</v>
+        <v>0.133399209486166</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1494565217391304</v>
+        <v>0.1201923076923077</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1547619047619047</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.760061919504644</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3928571428571428</v>
+        <v>0.4373401534526854</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3637820512820512</v>
+        <v>0.5676691729323309</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4880952380952381</v>
+        <v>0.8466386554621849</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1485507246376811</v>
+        <v>0.1141774891774891</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1339285714285714</v>
+        <v>0.1681818181818181</v>
       </c>
       <c r="L18" t="n">
-        <v>0.09642857142857141</v>
+        <v>0.1089655172413793</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1223776223776223</v>
+        <v>0.105911330049261</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1366459627329192</v>
+        <v>0.1231527093596059</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1875</v>
+        <v>0.1106719367588932</v>
       </c>
       <c r="P18" t="n">
-        <v>0.163235294117647</v>
+        <v>0.0912698412698412</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.1258741258741259</v>
+        <v>0.0454545454545454</v>
       </c>
       <c r="R18" t="n">
-        <v>0.0912698412698412</v>
+        <v>0.1106719367588932</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1471291866028708</v>
+        <v>0.0263157894736842</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1026315789473684</v>
+        <v>0.0662055335968379</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1698564593301435</v>
+        <v>0.0563186813186813</v>
       </c>
       <c r="V18" t="n">
-        <v>0.1359649122807017</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1452380952380952</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="X18" t="n">
-        <v>0.1359649122807017</v>
+        <v>0.0263157894736842</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.0980861244019138</v>
+        <v>0.0732323232323232</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.1225</v>
+        <v>0.149074074074074</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.1457800511508951</v>
+        <v>0.046078431372549</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.1623376623376623</v>
+        <v>0.025</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.1589673913043478</v>
+        <v>0.0834782608695652</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.3912280701754386</v>
+        <v>0.2532679738562091</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.4</v>
+        <v>0.0789473684210526</v>
       </c>
     </row>
     <row r="19">
@@ -2246,94 +2246,94 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1375</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2245989304812834</v>
+        <v>0.1152173913043478</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1464285714285714</v>
+        <v>0.10727969348659</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1413690476190476</v>
+        <v>0.0901856763925729</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1768774703557312</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="G19" t="n">
-        <v>0.142156862745098</v>
+        <v>0.1155555555555555</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1619565217391304</v>
+        <v>0.1366459627329192</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1031746031746031</v>
+        <v>0.07571428571428571</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.0957142857142857</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1213235294117647</v>
+        <v>0.1576923076923077</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2379679144385026</v>
+        <v>0.1169772256728778</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1384615384615384</v>
+        <v>0.0925925925925925</v>
       </c>
       <c r="N19" t="n">
-        <v>0.14</v>
+        <v>0.1613712374581939</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1583850931677018</v>
+        <v>0.1098484848484848</v>
       </c>
       <c r="P19" t="n">
-        <v>0.150375939849624</v>
+        <v>0.0851449275362318</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.086080586080586</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="R19" t="n">
-        <v>0.3117408906882591</v>
+        <v>0.2368421052631578</v>
       </c>
       <c r="S19" t="n">
-        <v>0.2514880952380952</v>
+        <v>0.10625</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3212250712250712</v>
+        <v>0.5163398692810457</v>
       </c>
       <c r="U19" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.674812030075188</v>
       </c>
       <c r="V19" t="n">
-        <v>0.0890269151138716</v>
+        <v>0.0544827586206896</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1509090909090909</v>
+        <v>0.0879446640316205</v>
       </c>
       <c r="X19" t="n">
-        <v>0.09761904761904761</v>
+        <v>0.0616666666666666</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.1625</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.1872294372294372</v>
+        <v>0.0627705627705627</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.1911111111111111</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.1768774703557312</v>
+        <v>0.0425724637681159</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.1625</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.1405228758169934</v>
+        <v>0.0693581780538302</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.1622807017543859</v>
+        <v>0.037037037037037</v>
       </c>
     </row>
     <row r="20">
@@ -2343,94 +2343,94 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6428571428571428</v>
       </c>
       <c r="C20" t="n">
-        <v>0.125</v>
+        <v>0.1269841269841269</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.1155555555555555</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1886363636363636</v>
+        <v>0.0933908045977011</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1583333333333333</v>
+        <v>0.1625</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1681818181818181</v>
+        <v>0.1022544283413848</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1622807017543859</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1317135549872122</v>
+        <v>0.0717391304347826</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1114551083591331</v>
+        <v>0.1036789297658862</v>
       </c>
       <c r="L20" t="n">
-        <v>0.175</v>
+        <v>0.0972222222222222</v>
       </c>
       <c r="M20" t="n">
-        <v>0.13</v>
+        <v>0.1240409207161125</v>
       </c>
       <c r="N20" t="n">
-        <v>0.2072829131652661</v>
+        <v>0.0854241338112305</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1269841269841269</v>
+        <v>0.0933333333333333</v>
       </c>
       <c r="P20" t="n">
-        <v>0.1027272727272727</v>
+        <v>0.1555555555555555</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.2063492063492063</v>
+        <v>0.03125</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1</v>
+        <v>0.0748663101604278</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1295289855072463</v>
+        <v>0.1076190476190476</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1152173913043478</v>
+        <v>0.0768115942028985</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1778656126482213</v>
+        <v>0.0557275541795665</v>
       </c>
       <c r="V20" t="n">
-        <v>0.1940993788819875</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="W20" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="X20" t="n">
-        <v>0.3933823529411764</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.3219696969696969</v>
+        <v>0.58125</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.6586538461538461</v>
+        <v>0.7490196078431373</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.1181818181818181</v>
+        <v>0.0850574712643678</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.1009316770186335</v>
+        <v>0.0916666666666666</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.05625</v>
+        <v>0.0592948717948717</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.1625</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.1521739130434782</v>
+        <v>0.0763888888888888</v>
       </c>
     </row>
     <row r="21">
@@ -2440,94 +2440,94 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.212797619047619</v>
+        <v>0.0947293447293447</v>
       </c>
       <c r="C21" t="n">
-        <v>0.05</v>
+        <v>0.117037037037037</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1534090909090909</v>
+        <v>0.1394230769230769</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1651785714285714</v>
+        <v>0.1324110671936759</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1700404858299595</v>
+        <v>0.1281818181818181</v>
       </c>
       <c r="G21" t="n">
-        <v>0.09846153846153841</v>
+        <v>0.1583333333333333</v>
       </c>
       <c r="H21" t="n">
-        <v>0.244047619047619</v>
+        <v>0.1149068322981366</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1885964912280701</v>
+        <v>0.125</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1619318181818181</v>
+        <v>0.134074074074074</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4807692307692308</v>
+        <v>0.7875</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4642857142857143</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3396739130434782</v>
+        <v>0.4227272727272727</v>
       </c>
       <c r="N21" t="n">
-        <v>0.4951923076923077</v>
+        <v>0.7380952380952381</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1633333333333333</v>
+        <v>0.1162402669632925</v>
       </c>
       <c r="P21" t="n">
-        <v>0.1422558922558922</v>
+        <v>0.1451048951048951</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.0767045454545454</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1456140350877193</v>
+        <v>0.0678571428571428</v>
       </c>
       <c r="S21" t="n">
-        <v>0.1136363636363636</v>
+        <v>0.0866666666666666</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.0662055335968379</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1739130434782608</v>
+        <v>0.0425724637681159</v>
       </c>
       <c r="V21" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.0560675883256528</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1363636363636363</v>
+        <v>0.0816666666666666</v>
       </c>
       <c r="X21" t="n">
-        <v>0.1114551083591331</v>
+        <v>0.0595238095238095</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.0764411027568922</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.1589473684210526</v>
+        <v>0.0395962732919254</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.1128364389233954</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.155</v>
+        <v>0.075</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.1047619047619047</v>
+        <v>0.0263157894736842</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.1026315789473684</v>
+        <v>0.0739348370927318</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.1081818181818181</v>
+        <v>0.094017094017094</v>
       </c>
     </row>
     <row r="22">
@@ -2537,94 +2537,94 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2302631578947368</v>
+        <v>0.114074074074074</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1590909090909091</v>
+        <v>0.1625</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2159090909090909</v>
+        <v>0.1036789297658862</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1671826625386996</v>
+        <v>0.0880541871921182</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1534526854219949</v>
+        <v>0.0925925925925925</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1034782608695652</v>
+        <v>0.1387163561076604</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1890756302521008</v>
+        <v>0.09704968944099369</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1225</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1458333333333333</v>
+        <v>0.0933333333333333</v>
       </c>
       <c r="K22" t="n">
-        <v>0.05</v>
+        <v>0.09003831417624519</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1631016042780748</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1289473684210526</v>
+        <v>0.1469298245614035</v>
       </c>
       <c r="N22" t="n">
-        <v>0.1798941798941798</v>
+        <v>0.1009316770186335</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1552380952380952</v>
+        <v>0.155</v>
       </c>
       <c r="P22" t="n">
-        <v>0.1369565217391304</v>
+        <v>0.1081818181818181</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.0515873015873015</v>
+        <v>0.0263157894736842</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1266968325791855</v>
+        <v>0.1309090909090909</v>
       </c>
       <c r="S22" t="n">
-        <v>0.4194444444444444</v>
+        <v>0.2039473684210526</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3470588235294117</v>
+        <v>0.1067251461988304</v>
       </c>
       <c r="U22" t="n">
-        <v>0.6154545454545455</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5743589743589743</v>
+        <v>0.3959330143540669</v>
       </c>
       <c r="W22" t="n">
-        <v>0.1068840579710145</v>
+        <v>0.0912698412698412</v>
       </c>
       <c r="X22" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.0627272727272727</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.0763157894736842</v>
+        <v>0.0592948717948717</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.1736111111111111</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.1128364389233954</v>
+        <v>0.0648148148148148</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.303030303030303</v>
+        <v>0.0662055335968379</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.206578947368421</v>
+        <v>0.0537135278514588</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.1372282608695652</v>
+        <v>0.0465367965367965</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.225</v>
+        <v>0.0652173913043478</v>
       </c>
     </row>
     <row r="23">
@@ -2634,94 +2634,94 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1452380952380952</v>
+        <v>0.125</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1485507246376811</v>
+        <v>0.1031746031746031</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1168831168831168</v>
+        <v>0.1252173913043478</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1608187134502924</v>
+        <v>0.07179487179487171</v>
       </c>
       <c r="F23" t="n">
-        <v>0.075</v>
+        <v>0.1114058355437665</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1245421245421245</v>
+        <v>0.1076190476190476</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1090686274509804</v>
+        <v>0.1204545454545454</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1611253196930946</v>
+        <v>0.1</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1066433566433566</v>
+        <v>0.1295546558704453</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1302521008403361</v>
+        <v>0.1041666666666666</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2119565217391304</v>
+        <v>0.1149068322981366</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1369565217391304</v>
+        <v>0.1875</v>
       </c>
       <c r="N23" t="n">
-        <v>0.4523809523809523</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6797385620915033</v>
       </c>
       <c r="P23" t="n">
-        <v>0.3412698412698413</v>
+        <v>0.4904761904761904</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6390977443609023</v>
       </c>
       <c r="R23" t="n">
-        <v>0.0625</v>
+        <v>0.0825892857142857</v>
       </c>
       <c r="S23" t="n">
-        <v>0.1239935587761674</v>
+        <v>0.1128364389233954</v>
       </c>
       <c r="T23" t="n">
-        <v>0.07936507936507931</v>
+        <v>0.0562678062678062</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1083333333333333</v>
+        <v>0.0192307692307692</v>
       </c>
       <c r="V23" t="n">
-        <v>0.1208133971291866</v>
+        <v>0.09953703703703699</v>
       </c>
       <c r="W23" t="n">
-        <v>0.200592885375494</v>
+        <v>0.0208333333333333</v>
       </c>
       <c r="X23" t="n">
-        <v>0.1114551083591331</v>
+        <v>0.069047619047619</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.1188235294117647</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.1619047619047618</v>
+        <v>0.0851449275362318</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.0919117647058823</v>
+        <v>0.07417582417582411</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.0871212121212121</v>
+        <v>0.1068840579710145</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.0463157894736842</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.10625</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.1931216931216931</v>
+        <v>0.0714285714285714</v>
       </c>
     </row>
     <row r="24">
@@ -2731,94 +2731,94 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2991071428571428</v>
+        <v>0.2426470588235294</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3840579710144927</v>
+        <v>0.5392156862745098</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5181818181818182</v>
+        <v>0.6917293233082706</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1055555555555555</v>
+        <v>0.1034482758620689</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09523809523809521</v>
+        <v>0.1514285714285714</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0747282608695652</v>
+        <v>0.1204013377926421</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1903846153846153</v>
+        <v>0.1034482758620689</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1715686274509804</v>
+        <v>0.08670033670033669</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1785714285714285</v>
+        <v>0.1277173913043478</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.0901856763925729</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1216666666666666</v>
+        <v>0.09003831417624519</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1608187134502924</v>
+        <v>0.1096837944664031</v>
       </c>
       <c r="N24" t="n">
-        <v>0.1096491228070175</v>
+        <v>0.1054545454545454</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0458333333333333</v>
+        <v>0.1366459627329192</v>
       </c>
       <c r="P24" t="n">
-        <v>0.19375</v>
+        <v>0.1084656084656084</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.0571895424836601</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.0726190476190476</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="S24" t="n">
-        <v>0.101010101010101</v>
+        <v>0.0277777777777777</v>
       </c>
       <c r="T24" t="n">
-        <v>0.1076190476190476</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="U24" t="n">
-        <v>0.092032967032967</v>
+        <v>0.0849999999999999</v>
       </c>
       <c r="V24" t="n">
-        <v>0.2111111111111111</v>
+        <v>0.0625</v>
       </c>
       <c r="W24" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.08125</v>
       </c>
       <c r="X24" t="n">
-        <v>0.1789473684210526</v>
+        <v>0.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.3673076923076923</v>
+        <v>0.0294117647058823</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.1805555555555555</v>
+        <v>0.1374269005847953</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.3695652173913043</v>
+        <v>0.375</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.1396103896103896</v>
+        <v>0.0483870967741935</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.1681818181818181</v>
+        <v>0.1125</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.071078431372549</v>
+        <v>0.0455486542443064</v>
       </c>
     </row>
     <row r="25">
@@ -2828,94 +2828,94 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1726973684210526</v>
+        <v>0.1452380952380952</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1746031746031746</v>
+        <v>0.1168831168831168</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1607142857142857</v>
+        <v>0.1715686274509804</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1463815789473684</v>
+        <v>0.1009615384615384</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.1079545454545454</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2036199095022624</v>
+        <v>0.1576923076923077</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3257575757575757</v>
+        <v>0.6036414565826331</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3571428571428571</v>
+        <v>0.6532738095238095</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4391304347826087</v>
+        <v>0.6228070175438596</v>
       </c>
       <c r="K25" t="n">
-        <v>0.478021978021978</v>
+        <v>0.440340909090909</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1126315789473684</v>
+        <v>0.09934318555008199</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1574074074074073</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0910973084886128</v>
+        <v>0.067287784679089</v>
       </c>
       <c r="O25" t="n">
-        <v>0.2122807017543859</v>
+        <v>0.0881818181818181</v>
       </c>
       <c r="P25" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.1671428571428571</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.1402173913043478</v>
+        <v>0.06926406926406919</v>
       </c>
       <c r="R25" t="n">
-        <v>0.0849673202614379</v>
+        <v>0.0489247311827956</v>
       </c>
       <c r="S25" t="n">
-        <v>0.1050724637681159</v>
+        <v>0.0572100313479623</v>
       </c>
       <c r="T25" t="n">
-        <v>0.2048611111111111</v>
+        <v>0.06944444444444441</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1622807017543859</v>
+        <v>0.0791925465838509</v>
       </c>
       <c r="V25" t="n">
-        <v>0.1013157894736842</v>
+        <v>0.0884615384615384</v>
       </c>
       <c r="W25" t="n">
-        <v>0.09027777777777771</v>
+        <v>0.0572413793103448</v>
       </c>
       <c r="X25" t="n">
-        <v>0.1365131578947368</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.1222222222222222</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.2285714285714285</v>
+        <v>0.0277777777777777</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.09347826086956521</v>
+        <v>0.0263157894736842</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.141025641025641</v>
+        <v>0.1053113553113553</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.138235294117647</v>
+        <v>0.0726190476190476</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.1270833333333333</v>
+        <v>0.025</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.19375</v>
+        <v>0.1081818181818181</v>
       </c>
     </row>
   </sheetData>
